--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Sample Name</t>
   </si>
@@ -108,15 +108,6 @@
     <t>Test Method</t>
   </si>
   <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>Choose...</t>
-  </si>
-  <si>
-    <t>ASTM D2216</t>
-  </si>
-  <si>
     <t>12"</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>Opt moisture content (%) Proctor</t>
   </si>
   <si>
-    <t>DH-BGC23-N</t>
-  </si>
-  <si>
     <t>Specific Gravity (OD)</t>
   </si>
   <si>
@@ -214,12 +202,6 @@
   </si>
   <si>
     <t>Percent of Absortion ((B-A)/A)*100)</t>
-  </si>
-  <si>
-    <t>ASTM-D854</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -791,10 +773,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,76 +814,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1">
-        <v>22.97</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -925,10 +837,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:X2"/>
+      <selection activeCell="A1" sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,25 +874,25 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="Q1" s="1">
         <v>10</v>
@@ -1005,78 +917,6 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1">
-        <v>100</v>
-      </c>
-      <c r="L2" s="1">
-        <v>100</v>
-      </c>
-      <c r="M2" s="1">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1">
-        <v>100</v>
-      </c>
-      <c r="O2" s="1">
-        <v>96.11</v>
-      </c>
-      <c r="P2" s="1">
-        <v>82.14</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>67.77</v>
-      </c>
-      <c r="R2" s="1">
-        <v>61.44</v>
-      </c>
-      <c r="S2" s="1">
-        <v>57.982</v>
-      </c>
-      <c r="T2" s="1">
-        <v>50.1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>48.78</v>
-      </c>
-      <c r="V2" s="1">
-        <v>42.45</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1100,10 +940,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:AF2"/>
+      <selection activeCell="A1" sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,159 +977,73 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="L2" s="1">
-        <v>22.97</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1422.04</v>
-      </c>
-      <c r="N2" s="1">
-        <v>18.83</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1430.84</v>
-      </c>
-      <c r="P2" s="1">
-        <v>20.64</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1441.54</v>
-      </c>
-      <c r="R2" s="1">
-        <v>22.57</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1459.4</v>
-      </c>
-      <c r="T2" s="1">
-        <v>24.66</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1457.32</v>
-      </c>
-      <c r="V2" s="1">
-        <v>27.99</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1465.71</v>
-      </c>
-      <c r="X2" s="1">
-        <v>30.98</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1">
-        <v>1465.71</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>30.98</v>
-      </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1313,10 +1067,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:O2"/>
+      <selection activeCell="A1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1350,69 +1104,22 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-1.84</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-1.95</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-1.66</v>
-      </c>
-      <c r="M2" s="1">
-        <v>6.02</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -837,10 +837,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:X1"/>
+      <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -917,6 +917,78 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1">
+        <v>100</v>
+      </c>
+      <c r="M2" s="1">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1">
+        <v>96.11</v>
+      </c>
+      <c r="P2" s="1">
+        <v>82.14</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>67.77</v>
+      </c>
+      <c r="R2" s="1">
+        <v>61.44</v>
+      </c>
+      <c r="S2" s="1">
+        <v>57.982</v>
+      </c>
+      <c r="T2" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>48.78</v>
+      </c>
+      <c r="V2" s="1">
+        <v>42.45</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
